--- a/week4/2021광역시도별지원예산.xlsx
+++ b/week4/2021광역시도별지원예산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Welcome/Desktop/minji/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D97446-5BD3-684F-A29F-6D5EBD169761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558E6D6-6FA8-C64D-9036-9DFEB7B7220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16800" yWindow="15380" windowWidth="10000" windowHeight="18580" xr2:uid="{21D43E77-B2C1-CB42-B7E2-80AA9BF5B2A9}"/>
   </bookViews>
@@ -37,10 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,25 +481,25 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>8</v>
